--- a/subjs-mc3.xlsx
+++ b/subjs-mc3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23060" yWindow="10680" windowWidth="15200" windowHeight="10000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mc" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>l</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>divergent staircases; excluded</t>
+  </si>
+  <si>
+    <t>Azman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Zhi Wei</t>
   </si>
 </sst>
 </file>
@@ -285,7 +294,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -457,6 +466,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,7 +526,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="185">
     <cellStyle name="Bad" xfId="151" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="145" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -607,6 +618,7 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="150" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -697,6 +709,7 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="170" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2337,7 +2350,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2449,13 +2462,41 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="D3">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="E3">
+        <v>-0.877</v>
+      </c>
+      <c r="F3">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3" si="2">AVERAGE(C3,D3)</f>
+        <v>-0.57450000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3" si="3">AVERAGE(E3,F3)</f>
+        <v>-0.53749999999999998</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -2466,13 +2507,38 @@
       <c r="S3"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-1.0569999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-0.95799999999999996</v>
+      </c>
+      <c r="E4">
+        <v>-0.997</v>
+      </c>
+      <c r="F4">
+        <v>-1.212</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4" si="4">AVERAGE(C4,D4)</f>
+        <v>-1.0074999999999998</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4" si="5">AVERAGE(E4,F4)</f>
+        <v>-1.1045</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>

--- a/subjs-mc3.xlsx
+++ b/subjs-mc3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
   <si>
     <t>l</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Zhi Wei</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Jois Cham</t>
+  </si>
+  <si>
+    <t>Frances</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2359,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2549,13 +2558,38 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-1.022</v>
+      </c>
+      <c r="D5">
+        <v>-0.95799999999999996</v>
+      </c>
+      <c r="E5">
+        <v>-1.1120000000000001</v>
+      </c>
+      <c r="F5">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5" si="6">AVERAGE(C5,D5)</f>
+        <v>-0.99</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5" si="7">AVERAGE(E5,F5)</f>
+        <v>-1.0950000000000002</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -2566,13 +2600,38 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-0.91700000000000004</v>
+      </c>
+      <c r="D6">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="E6">
+        <v>-0.84199999999999997</v>
+      </c>
+      <c r="F6">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6" si="8">AVERAGE(C6,D6)</f>
+        <v>-0.90450000000000008</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6" si="9">AVERAGE(E6,F6)</f>
+        <v>-0.85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2583,13 +2642,38 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="D7">
+        <v>-0.95199999999999996</v>
+      </c>
+      <c r="E7">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-1.212</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7" si="10">AVERAGE(C7,D7)</f>
+        <v>-0.95699999999999996</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7" si="11">AVERAGE(E7,F7)</f>
+        <v>-1.177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>

--- a/subjs-mc3.xlsx
+++ b/subjs-mc3.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23060" yWindow="10680" windowWidth="15200" windowHeight="10000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="21220" yWindow="10000" windowWidth="17180" windowHeight="11080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mc" sheetId="9" r:id="rId1"/>
     <sheet name="mc3" sheetId="11" r:id="rId2"/>
+    <sheet name="mc3_arch" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
   <si>
     <t>l</t>
   </si>
@@ -49,9 +50,6 @@
     <t>dom</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -173,6 +171,27 @@
   </si>
   <si>
     <t>Frances</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>subj</t>
+  </si>
+  <si>
+    <t>threshL</t>
+  </si>
+  <si>
+    <t>threshR</t>
+  </si>
+  <si>
+    <t>Zixin</t>
+  </si>
+  <si>
+    <t>Bernice</t>
+  </si>
+  <si>
+    <t>Jiaxin</t>
   </si>
 </sst>
 </file>
@@ -303,7 +322,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,8 +508,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="145" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,8 +563,12 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="170" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="195">
     <cellStyle name="Bad" xfId="151" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="145" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -628,6 +661,11 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="150" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -719,10 +757,26 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="170" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1090,13 +1144,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+    <sheetView showRuler="0" topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -1114,64 +1168,64 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1231,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="11">
         <v>43013</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1280,7 +1334,7 @@
         <v>34</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="9">
         <v>35</v>
@@ -1320,10 +1374,10 @@
         <v>-1.085</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7">
         <v>4</v>
@@ -1332,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="11">
         <v>43013</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1369,10 +1423,10 @@
         <v>-1.3374999999999999</v>
       </c>
       <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
       </c>
       <c r="K6">
         <v>92765827</v>
@@ -1384,19 +1438,19 @@
         <v>10</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="11">
         <v>43013</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7">
         <v>34</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6" s="9">
         <v>20</v>
@@ -1405,10 +1459,10 @@
         <v>43034</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1442,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>97332126</v>
@@ -1494,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <v>96476748</v>
@@ -1546,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>98182176</v>
@@ -1555,7 +1609,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" s="9">
         <v>35</v>
@@ -1598,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10">
         <v>96573870</v>
@@ -1610,13 +1664,13 @@
         <v>15</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="11">
         <v>43014</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1650,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>96446886</v>
@@ -1699,10 +1753,10 @@
         <v>-1.7795000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="15">
         <v>3</v>
@@ -1723,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S12" s="9">
         <v>25</v>
@@ -1732,7 +1786,7 @@
         <v>43035</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1766,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>87499937</v>
@@ -1775,7 +1829,7 @@
         <v>43</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="9">
         <v>35</v>
@@ -1790,13 +1844,13 @@
         <v>43</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S13" s="13">
         <v>35</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U13" s="16">
         <v>43041</v>
@@ -1833,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>93604363</v>
@@ -1845,13 +1899,13 @@
         <v>15</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="11">
         <v>43018</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7">
         <v>21</v>
@@ -1897,10 +1951,10 @@
         <v>-1.135</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>86086902</v>
@@ -1967,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>87430210</v>
@@ -1991,7 +2045,7 @@
         <v>43</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S16" s="9">
         <v>30</v>
@@ -2000,10 +2054,10 @@
         <v>43035</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -2037,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="12">
         <v>94576127</v>
@@ -2046,7 +2100,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="9">
         <v>30</v>
@@ -2064,16 +2118,16 @@
         <v>15</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T17" s="11">
         <v>43035</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -2107,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>84442244</v>
@@ -2116,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="9">
         <v>30</v>
@@ -2159,22 +2213,22 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>97665768</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7">
         <v>12</v>
@@ -2220,25 +2274,25 @@
         <v>-1.36</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>82992489</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="7">
         <v>12</v>
@@ -2250,7 +2304,7 @@
         <v>15</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U20" s="11">
         <v>43041</v>
@@ -2284,22 +2338,22 @@
         <v>-1.4049999999999998</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7">
         <v>2</v>
@@ -2308,16 +2362,16 @@
         <v>10</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T21" s="11">
         <v>43035</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2335,12 +2389,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:P1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:U1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2356,15 +2410,621 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
+    <col min="18" max="19" width="11" style="7"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-1.278</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-1.1579999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-1.2430000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2" si="0">AVERAGE(C2,D2)</f>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2" si="1">AVERAGE(E2,F2)</f>
+        <v>-1.2004999999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-1.375</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-1.1819999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-0.93700000000000006</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C3,D3)</f>
+        <v>-1.4390000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(E3,F3)</f>
+        <v>-1.0594999999999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-0.91700000000000004</v>
+      </c>
+      <c r="D4">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="E4">
+        <v>-0.84199999999999997</v>
+      </c>
+      <c r="F4">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4" si="2">AVERAGE(C4,D4)</f>
+        <v>-0.90450000000000008</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4" si="3">AVERAGE(E4,F4)</f>
+        <v>-0.85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="D5">
+        <v>-0.95199999999999996</v>
+      </c>
+      <c r="E5">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-1.212</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5" si="4">AVERAGE(C5,D5)</f>
+        <v>-0.95699999999999996</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5" si="5">AVERAGE(E5,F5)</f>
+        <v>-1.177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-1.022</v>
+      </c>
+      <c r="D6">
+        <v>-1.012</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="F6">
+        <v>-1.103</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6" si="6">AVERAGE(C6,D6)</f>
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6" si="7">AVERAGE(E6,F6)</f>
+        <v>-1.0925</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="D7">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-1.1120000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G8" si="8">AVERAGE(C7,D7)</f>
+        <v>-1.08</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H8" si="9">AVERAGE(E7,F7)</f>
+        <v>-1.0645</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-1.2230000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.2170000000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1.3580000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="8"/>
+        <v>-1.2200000000000002</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="9"/>
+        <v>-1.3374999999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="D9">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-1.028</v>
+      </c>
+      <c r="F9">
+        <v>-1.0229999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" ref="G9" si="10">AVERAGE(C9,D9)</f>
+        <v>-1.08</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" ref="H9" si="11">AVERAGE(E9,F9)</f>
+        <v>-1.0255000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:S1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"na"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -2381,129 +3041,134 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="7">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-1.1220000000000001</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-1.278</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-1.1579999999999999</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-1.2430000000000001</v>
+      <c r="C2">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="D2">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="E2">
+        <v>-0.877</v>
+      </c>
+      <c r="F2">
+        <v>-0.19800000000000001</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2" si="0">AVERAGE(C2,D2)</f>
-        <v>-1.2000000000000002</v>
+        <f t="shared" ref="G2:G4" si="0">AVERAGE(C2,D2)</f>
+        <v>-0.57450000000000001</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2" si="1">AVERAGE(E2,F2)</f>
-        <v>-1.2004999999999999</v>
+        <f t="shared" ref="H2:H4" si="1">AVERAGE(E2,F2)</f>
+        <v>-0.53749999999999998</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7">
-        <v>12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.79700000000000004</v>
+        <v>-1.0569999999999999</v>
       </c>
       <c r="D3">
-        <v>-0.35199999999999998</v>
+        <v>-0.95799999999999996</v>
       </c>
       <c r="E3">
-        <v>-0.877</v>
+        <v>-0.997</v>
       </c>
       <c r="F3">
-        <v>-0.19800000000000001</v>
+        <v>-1.212</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3" si="2">AVERAGE(C3,D3)</f>
-        <v>-0.57450000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-1.0074999999999998</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" si="3">AVERAGE(E3,F3)</f>
-        <v>-0.53749999999999998</v>
+        <f t="shared" si="1"/>
+        <v>-1.1045</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
         <v>46</v>
       </c>
       <c r="L3"/>
@@ -2515,81 +3180,48 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:19" s="17" customFormat="1">
+      <c r="A4" s="17">
+        <v>6</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>-1.0569999999999999</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="17">
+        <v>-1.022</v>
+      </c>
+      <c r="D4" s="17">
         <v>-0.95799999999999996</v>
       </c>
-      <c r="E4">
-        <v>-0.997</v>
-      </c>
-      <c r="F4">
-        <v>-1.212</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4" si="4">AVERAGE(C4,D4)</f>
-        <v>-1.0074999999999998</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4" si="5">AVERAGE(E4,F4)</f>
-        <v>-1.1045</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="E4" s="17">
+        <v>-1.1120000000000001</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.99</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="1"/>
+        <v>-1.0950000000000002</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>-1.022</v>
-      </c>
-      <c r="D5">
-        <v>-0.95799999999999996</v>
-      </c>
-      <c r="E5">
-        <v>-1.1120000000000001</v>
-      </c>
-      <c r="F5">
-        <v>-1.0780000000000001</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5" si="6">AVERAGE(C5,D5)</f>
-        <v>-0.99</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5" si="7">AVERAGE(E5,F5)</f>
-        <v>-1.0950000000000002</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -2600,38 +3232,13 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-0.91700000000000004</v>
-      </c>
-      <c r="D6">
-        <v>-0.89200000000000002</v>
-      </c>
-      <c r="E6">
-        <v>-0.84199999999999997</v>
-      </c>
-      <c r="F6">
-        <v>-0.85799999999999998</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" ref="G6" si="8">AVERAGE(C6,D6)</f>
-        <v>-0.90450000000000008</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" ref="H6" si="9">AVERAGE(E6,F6)</f>
-        <v>-0.85</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
+      <c r="A6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2642,38 +3249,13 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>-0.96199999999999997</v>
-      </c>
-      <c r="D7">
-        <v>-0.95199999999999996</v>
-      </c>
-      <c r="E7">
-        <v>-1.1419999999999999</v>
-      </c>
-      <c r="F7">
-        <v>-1.212</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7" si="10">AVERAGE(C7,D7)</f>
-        <v>-0.95699999999999996</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7" si="11">AVERAGE(E7,F7)</f>
-        <v>-1.177</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -2855,12 +3437,6 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -2870,76 +3446,13 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="M1:S1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/subjs-mc3.xlsx
+++ b/subjs-mc3.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="10000" windowWidth="17180" windowHeight="11080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23376" yWindow="9996" windowWidth="15024" windowHeight="9432" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mc" sheetId="9" r:id="rId1"/>
     <sheet name="mc3" sheetId="11" r:id="rId2"/>
     <sheet name="mc3_arch" sheetId="12" r:id="rId3"/>
+    <sheet name="mc3-6" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="71">
   <si>
     <t>l</t>
   </si>
@@ -192,6 +193,48 @@
   </si>
   <si>
     <t>Jiaxin</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Amarylinn</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Poh Ying</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Yui Juin</t>
+  </si>
+  <si>
+    <t>Jun Hao</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>Bhavika</t>
+  </si>
+  <si>
+    <t>Kai Qian</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Elythea</t>
   </si>
 </sst>
 </file>
@@ -322,7 +365,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -494,6 +537,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -568,7 +619,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="203">
     <cellStyle name="Bad" xfId="151" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="145" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -666,6 +717,10 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="150" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -762,10 +817,25 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="170" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1144,29 +1214,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="7" customWidth="1"/>
-    <col min="18" max="19" width="4.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.19921875" style="7" customWidth="1"/>
+    <col min="18" max="19" width="4.296875" style="7" customWidth="1"/>
     <col min="20" max="21" width="11" style="7"/>
     <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1228,7 +1298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1242,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1294,7 +1364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1346,7 +1416,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1395,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1465,7 +1535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1517,7 +1587,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1569,7 +1639,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1621,7 +1691,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1673,7 +1743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1725,7 +1795,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1789,7 +1859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1856,7 +1926,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1923,7 +1993,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1990,7 +2060,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2060,7 +2130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -2130,7 +2200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2182,7 +2252,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2246,7 +2316,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2310,7 +2380,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -2374,7 +2444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -2389,12 +2459,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:U1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2410,31 +2480,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="A18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.296875" style="7" customWidth="1"/>
     <col min="18" max="19" width="11" style="7"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -2488,7 +2559,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -2525,7 +2596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -2567,7 +2638,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2609,7 +2680,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -2651,7 +2722,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2693,7 +2764,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2735,7 +2806,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2777,7 +2848,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -2797,11 +2868,11 @@
         <v>-1.0229999999999999</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G9" si="10">AVERAGE(C9,D9)</f>
+        <f t="shared" ref="G9:G11" si="10">AVERAGE(C9,D9)</f>
         <v>-1.08</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9" si="11">AVERAGE(E9,F9)</f>
+        <f t="shared" ref="H9:H11" si="11">AVERAGE(E9,F9)</f>
         <v>-1.0255000000000001</v>
       </c>
       <c r="I9" t="s">
@@ -2819,14 +2890,39 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-1.462</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.762</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1.423</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1.1679999999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="10"/>
+        <v>-1.6120000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="11"/>
+        <v>-1.2955000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -2836,14 +2932,39 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-1.282</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.4430000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="10"/>
+        <v>-1.3625</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="11"/>
+        <v>-1.4830000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -2853,14 +2974,39 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="D12">
+        <v>-0.76800000000000002</v>
+      </c>
+      <c r="E12">
+        <v>-0.93200000000000005</v>
+      </c>
+      <c r="F12">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" ref="G12" si="12">AVERAGE(C12,D12)</f>
+        <v>-0.77550000000000008</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ref="H12" si="13">AVERAGE(E12,F12)</f>
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -2870,14 +3016,39 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-1.0980000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F13">
+        <v>-1.1779999999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="14">AVERAGE(C13,D13)</f>
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ref="H13" si="15">AVERAGE(E13,F13)</f>
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -2887,14 +3058,36 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-0.88200000000000001</v>
+      </c>
+      <c r="D14">
+        <v>-0.92300000000000004</v>
+      </c>
+      <c r="E14">
+        <v>-0.90200000000000002</v>
+      </c>
+      <c r="F14">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" ref="G14" si="16">AVERAGE(C14,D14)</f>
+        <v>-0.90250000000000008</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ref="H14" si="17">AVERAGE(E14,F14)</f>
+        <v>-0.80499999999999994</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -2904,14 +3097,22 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -2921,14 +3122,39 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="D16">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="E16">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="F16">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16" si="18">AVERAGE(C16,D16)</f>
+        <v>-0.73350000000000004</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16" si="19">AVERAGE(E16,F16)</f>
+        <v>-0.42500000000000004</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -2938,14 +3164,39 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="D17">
+        <v>-0.58799999999999997</v>
+      </c>
+      <c r="E17">
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="F17">
+        <v>-0.69199999999999995</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17" si="20">AVERAGE(C17,D17)</f>
+        <v>-0.58650000000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17" si="21">AVERAGE(E17,F17)</f>
+        <v>-0.66700000000000004</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
@@ -2955,14 +3206,39 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>-1.8819999999999999</v>
+      </c>
+      <c r="D18">
+        <v>-1.022</v>
+      </c>
+      <c r="E18">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="F18">
+        <v>-0.878</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18" si="22">AVERAGE(C18,D18)</f>
+        <v>-1.452</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ref="H18" si="23">AVERAGE(E18,F18)</f>
+        <v>-0.95750000000000002</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -2972,14 +3248,39 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>-0.88200000000000001</v>
+      </c>
+      <c r="D19">
+        <v>-0.92800000000000005</v>
+      </c>
+      <c r="E19">
+        <v>-0.98799999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-1.0580000000000001</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19" si="24">AVERAGE(C19,D19)</f>
+        <v>-0.90500000000000003</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ref="H19" si="25">AVERAGE(E19,F19)</f>
+        <v>-1.0230000000000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -2989,8 +3290,39 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-0.378</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-0.61799999999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" ref="G20" si="26">AVERAGE(C20,D20)</f>
+        <v>-0.61749999999999994</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20" si="27">AVERAGE(E20,F20)</f>
+        <v>-0.57000000000000006</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -3000,9 +3332,145 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.66300000000000003</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-1.022</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" ref="G21" si="28">AVERAGE(C21,D21)</f>
+        <v>-0.68049999999999999</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21" si="29">AVERAGE(E21,F21)</f>
+        <v>-0.90250000000000008</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-0.54300000000000004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-0.46300000000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" ref="G22" si="30">AVERAGE(C22,D22)</f>
+        <v>-0.503</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ref="H22" si="31">AVERAGE(E22,F22)</f>
+        <v>-0.72499999999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>-0.70199999999999996</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" ref="G23" si="32">AVERAGE(C23,D23)</f>
+        <v>-0.497</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23" si="33">AVERAGE(E23,F23)</f>
+        <v>-0.82699999999999996</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>-0.84799999999999998</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-0.89700000000000002</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" ref="G24" si="34">AVERAGE(C24,D24)</f>
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" ref="H24" si="35">AVERAGE(E24,F24)</f>
+        <v>-0.76750000000000007</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="M1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3020,26 +3488,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.296875" style="7" customWidth="1"/>
     <col min="18" max="19" width="11" style="7"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -3093,7 +3561,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3138,7 +3606,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3180,7 +3648,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" s="17" customFormat="1">
+    <row r="4" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>6</v>
       </c>
@@ -3214,7 +3682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -3231,7 +3699,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -3248,7 +3716,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -3265,7 +3733,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -3282,7 +3750,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -3299,7 +3767,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -3316,7 +3784,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -3333,7 +3801,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -3350,7 +3818,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3367,7 +3835,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3384,7 +3852,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -3401,7 +3869,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -3418,7 +3886,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -3435,7 +3903,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3448,7 +3916,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:S1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3459,4 +3927,849 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.296875" style="7" customWidth="1"/>
+    <col min="18" max="19" width="11" style="7"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-1.278</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-1.1579999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-1.2430000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2" si="0">AVERAGE(C2,D2)</f>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2" si="1">AVERAGE(E2,F2)</f>
+        <v>-1.2004999999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-1.375</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-1.1819999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-0.93700000000000006</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C3,D3)</f>
+        <v>-1.4390000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(E3,F3)</f>
+        <v>-1.0594999999999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-0.91700000000000004</v>
+      </c>
+      <c r="D4">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="E4">
+        <v>-0.84199999999999997</v>
+      </c>
+      <c r="F4">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G14" si="2">AVERAGE(C4,D4)</f>
+        <v>-0.90450000000000008</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H14" si="3">AVERAGE(E4,F4)</f>
+        <v>-0.85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="D5">
+        <v>-0.95199999999999996</v>
+      </c>
+      <c r="E5">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-1.212</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.95699999999999996</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-1.022</v>
+      </c>
+      <c r="D6">
+        <v>-1.012</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="F6">
+        <v>-1.103</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0925</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="D7">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-1.1120000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.08</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0645</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-1.2230000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.2170000000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1.3580000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.2200000000000002</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.3374999999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="D9">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-1.028</v>
+      </c>
+      <c r="F9">
+        <v>-1.0229999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.08</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0255000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-1.462</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.762</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1.423</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1.1679999999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.6120000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.2955000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-1.282</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.4430000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.3625</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.4830000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="D12">
+        <v>-0.76800000000000002</v>
+      </c>
+      <c r="E12">
+        <v>-0.93200000000000005</v>
+      </c>
+      <c r="F12">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.77550000000000008</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-1.0980000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F13">
+        <v>-1.1779999999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-0.88200000000000001</v>
+      </c>
+      <c r="D14">
+        <v>-0.92300000000000004</v>
+      </c>
+      <c r="E14">
+        <v>-0.90200000000000002</v>
+      </c>
+      <c r="F14">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.90250000000000008</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.80499999999999994</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-1.8819999999999999</v>
+      </c>
+      <c r="D16">
+        <v>-1.022</v>
+      </c>
+      <c r="E16">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-0.878</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16" si="4">AVERAGE(C16,D16)</f>
+        <v>-1.452</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16" si="5">AVERAGE(E16,F16)</f>
+        <v>-0.95750000000000002</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="D17">
+        <v>-0.58799999999999997</v>
+      </c>
+      <c r="E17">
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="F17">
+        <v>-0.69199999999999995</v>
+      </c>
+      <c r="G17" s="6">
+        <f>AVERAGE(C17,D17)</f>
+        <v>-0.58650000000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <f>AVERAGE(E17,F17)</f>
+        <v>-0.66700000000000004</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-1.222</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-1.1180000000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-1.028</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18:G19" si="6">AVERAGE(C18,D18)</f>
+        <v>-1.17</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ref="H18:H19" si="7">AVERAGE(E18,F18)</f>
+        <v>-1.085</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>-1.2230000000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-1.2170000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-1.3580000000000001</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.2200000000000002</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.3374999999999999</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:S1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"na"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
 </file>
--- a/subjs-mc3.xlsx
+++ b/subjs-mc3.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23376" yWindow="9996" windowWidth="15024" windowHeight="9432" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4620" yWindow="4900" windowWidth="15020" windowHeight="9440" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mc" sheetId="9" r:id="rId1"/>
     <sheet name="mc3" sheetId="11" r:id="rId2"/>
     <sheet name="mc3_arch" sheetId="12" r:id="rId3"/>
     <sheet name="mc3-6" sheetId="15" r:id="rId4"/>
+    <sheet name="mc3-7" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="71">
   <si>
     <t>l</t>
   </si>
@@ -365,7 +366,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,6 +538,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -619,7 +624,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="207">
     <cellStyle name="Bad" xfId="151" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="145" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -721,6 +726,8 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="150" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -821,10 +828,23 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="170" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1214,29 +1234,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.19921875" style="7" customWidth="1"/>
-    <col min="18" max="19" width="4.296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="4.33203125" style="7" customWidth="1"/>
     <col min="20" max="21" width="11" style="7"/>
     <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1298,7 +1318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1312,7 +1332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1364,7 +1384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1465,7 +1485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1535,7 +1555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1587,7 +1607,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1639,7 +1659,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1691,7 +1711,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1743,7 +1763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1795,7 +1815,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1859,7 +1879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1926,7 +1946,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1993,7 +2013,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2060,7 +2080,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2130,7 +2150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2252,7 +2272,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2316,7 +2336,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2380,7 +2400,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -2444,7 +2464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -2459,12 +2479,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:P1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:U1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2482,30 +2502,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="A18:J18"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="B20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
     <col min="18" max="19" width="11" style="7"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -2559,7 +2579,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -2596,7 +2616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>7</v>
       </c>
@@ -2638,7 +2658,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2680,7 +2700,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>9</v>
       </c>
@@ -2722,7 +2742,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2764,7 +2784,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2806,7 +2826,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2848,7 +2868,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>13</v>
       </c>
@@ -2890,7 +2910,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2932,7 +2952,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2974,7 +2994,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>16</v>
       </c>
@@ -3016,7 +3036,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>17</v>
       </c>
@@ -3058,7 +3078,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>18</v>
       </c>
@@ -3097,7 +3117,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3122,7 +3142,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3164,7 +3184,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3206,7 +3226,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3248,7 +3268,7 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3290,7 +3310,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3332,7 +3352,7 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="7">
         <v>7</v>
       </c>
@@ -3366,7 +3386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="7">
         <v>8</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="7">
         <v>9</v>
       </c>
@@ -3434,7 +3454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="7">
         <v>10</v>
       </c>
@@ -3470,7 +3490,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:S1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3488,26 +3508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="205" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
     <col min="18" max="19" width="11" style="7"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -3561,7 +3581,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3606,7 +3626,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3648,7 +3668,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="17" customFormat="1">
       <c r="A4" s="17">
         <v>6</v>
       </c>
@@ -3682,7 +3702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -3699,7 +3719,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -3716,7 +3736,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -3733,7 +3753,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -3750,7 +3770,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -3767,7 +3787,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -3784,7 +3804,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -3801,7 +3821,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -3818,7 +3838,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3835,7 +3855,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3852,7 +3872,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -3869,7 +3889,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -3886,7 +3906,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -3903,7 +3923,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3916,7 +3936,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3933,30 +3953,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="B12:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.296875" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
     <col min="18" max="19" width="11" style="7"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -4010,7 +4030,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>7</v>
       </c>
@@ -4089,7 +4109,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4131,7 +4151,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4173,7 +4193,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>10</v>
       </c>
@@ -4215,7 +4235,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>11</v>
       </c>
@@ -4257,7 +4277,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4299,7 +4319,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>13</v>
       </c>
@@ -4341,7 +4361,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>14</v>
       </c>
@@ -4383,7 +4403,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>15</v>
       </c>
@@ -4425,7 +4445,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>16</v>
       </c>
@@ -4467,7 +4487,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>17</v>
       </c>
@@ -4509,7 +4529,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>18</v>
       </c>
@@ -4548,7 +4568,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4574,7 +4594,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4616,7 +4636,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4658,7 +4678,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4700,7 +4720,7 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4742,7 +4762,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="7">
         <v>5</v>
       </c>
@@ -4750,7 +4770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="7">
         <v>6</v>
       </c>
@@ -4758,7 +4778,838 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
+      <c r="A22" s="7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:S1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"na"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="7" customWidth="1"/>
+    <col min="18" max="19" width="11" style="7"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-1.278</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-1.1579999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-1.2430000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2" si="0">AVERAGE(C2,D2)</f>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2" si="1">AVERAGE(E2,F2)</f>
+        <v>-1.2004999999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-1.375</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-1.1819999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-0.93700000000000006</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C3,D3)</f>
+        <v>-1.4390000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(E3,F3)</f>
+        <v>-1.0594999999999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-0.91700000000000004</v>
+      </c>
+      <c r="D4">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="E4">
+        <v>-0.84199999999999997</v>
+      </c>
+      <c r="F4">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G15" si="2">AVERAGE(C4,D4)</f>
+        <v>-0.90450000000000008</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H15" si="3">AVERAGE(E4,F4)</f>
+        <v>-0.85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="D5">
+        <v>-0.95199999999999996</v>
+      </c>
+      <c r="E5">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-1.212</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.95699999999999996</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-1.022</v>
+      </c>
+      <c r="D6">
+        <v>-1.012</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="F6">
+        <v>-1.103</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0925</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="D7">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-1.1120000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.08</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0645</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-1.2230000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.2170000000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1.3580000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.2200000000000002</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.3374999999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="D9">
+        <v>-1.0780000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-1.028</v>
+      </c>
+      <c r="F9">
+        <v>-1.0229999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.08</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0255000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-1.462</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.762</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1.423</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1.1679999999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.6120000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.2955000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-1.282</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.4430000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.3625</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.4830000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="D12">
+        <v>-0.76800000000000002</v>
+      </c>
+      <c r="E12">
+        <v>-0.93200000000000005</v>
+      </c>
+      <c r="F12">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.77550000000000008</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-1.0980000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-1.1419999999999999</v>
+      </c>
+      <c r="F13">
+        <v>-1.1779999999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-0.88200000000000001</v>
+      </c>
+      <c r="D14">
+        <v>-0.92300000000000004</v>
+      </c>
+      <c r="E14">
+        <v>-0.90200000000000002</v>
+      </c>
+      <c r="F14">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.90250000000000008</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.80499999999999994</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="D15">
+        <v>-0.81799999999999995</v>
+      </c>
+      <c r="E15">
+        <v>-0.69699999999999995</v>
+      </c>
+      <c r="F15">
+        <v>-0.74299999999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.87</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="D16">
+        <v>-0.76800000000000002</v>
+      </c>
+      <c r="E16">
+        <v>-0.93200000000000005</v>
+      </c>
+      <c r="F16">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16" si="4">AVERAGE(C16,D16)</f>
+        <v>-0.77550000000000008</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16" si="5">AVERAGE(E16,F16)</f>
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-0.47299999999999998</v>
+      </c>
+      <c r="D17">
+        <v>-0.51700000000000002</v>
+      </c>
+      <c r="E17">
+        <v>-0.54200000000000004</v>
+      </c>
+      <c r="F17">
+        <v>-0.498</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17:G18" si="6">AVERAGE(C17,D17)</f>
+        <v>-0.495</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:H18" si="7">AVERAGE(E17,F17)</f>
+        <v>-0.52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.378</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-0.61799999999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="6"/>
+        <v>-0.61749999999999994</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.57000000000000006</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="7">
         <v>7</v>
       </c>
@@ -4771,5 +5622,10 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>